--- a/full-text/test_prior 90.xlsx
+++ b/full-text/test_prior 90.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="6200" yWindow="3180" windowWidth="40140" windowHeight="20140"/>
+    <workbookView xWindow="6200" yWindow="3180" windowWidth="40140" windowHeight="20140" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="test_prior" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1966" uniqueCount="1095">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1974" uniqueCount="1096">
   <si>
     <t>ID</t>
   </si>
@@ -3320,6 +3320,9 @@
   </si>
   <si>
     <t>No fault or failure</t>
+  </si>
+  <si>
+    <t>history, current, test</t>
   </si>
 </sst>
 </file>
@@ -4131,8 +4134,8 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="-31105488"/>
-        <c:axId val="-32746512"/>
+        <c:axId val="-55392736"/>
+        <c:axId val="-473305760"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -4216,11 +4219,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-32336896"/>
-        <c:axId val="-55409920"/>
+        <c:axId val="-473751072"/>
+        <c:axId val="-443686432"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-31105488"/>
+        <c:axId val="-55392736"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4263,7 +4266,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-32746512"/>
+        <c:crossAx val="-473305760"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4271,7 +4274,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-32746512"/>
+        <c:axId val="-473305760"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4321,12 +4324,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-31105488"/>
+        <c:crossAx val="-55392736"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-55409920"/>
+        <c:axId val="-443686432"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="0.837"/>
@@ -4365,12 +4368,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-32336896"/>
+        <c:crossAx val="-473751072"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="-32336896"/>
+        <c:axId val="-473751072"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4380,7 +4383,8 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-55409920"/>
+        <c:crossAx val="-443686432"/>
+        <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
@@ -4855,7 +4859,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>122.0</c:v>
+                  <c:v>121.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>38.0</c:v>
@@ -4867,7 +4871,7 @@
                   <c:v>75.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>17.0</c:v>
+                  <c:v>20.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>10.0</c:v>
@@ -4886,8 +4890,8 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="-84570048"/>
-        <c:axId val="-53695504"/>
+        <c:axId val="-504486368"/>
+        <c:axId val="-473180192"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -4951,7 +4955,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>0.510460251046025</c:v>
+                  <c:v>0.506276150627615</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0.158995815899582</c:v>
@@ -4963,7 +4967,7 @@
                   <c:v>0.313807531380753</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.0711297071129707</c:v>
+                  <c:v>0.0836820083682008</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>0.0418410041841004</c:v>
@@ -4983,11 +4987,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-84286608"/>
-        <c:axId val="-27201936"/>
+        <c:axId val="-473200928"/>
+        <c:axId val="-456587600"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-84570048"/>
+        <c:axId val="-504486368"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5030,7 +5034,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-53695504"/>
+        <c:crossAx val="-473180192"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5038,7 +5042,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-53695504"/>
+        <c:axId val="-473180192"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5089,12 +5093,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-84570048"/>
+        <c:crossAx val="-504486368"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-27201936"/>
+        <c:axId val="-456587600"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5130,12 +5134,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-84286608"/>
+        <c:crossAx val="-473200928"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="-84286608"/>
+        <c:axId val="-473200928"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5145,7 +5149,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-27201936"/>
+        <c:crossAx val="-456587600"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5398,7 +5402,7 @@
                   <c:v>7.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>7.0</c:v>
+                  <c:v>8.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5487,13 +5491,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>0.481481481481481</c:v>
+                  <c:v>0.464285714285714</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.259259259259259</c:v>
+                  <c:v>0.25</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.259259259259259</c:v>
+                  <c:v>0.285714285714286</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8232,8 +8236,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K243"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A160" workbookViewId="0">
-      <selection activeCell="A202" sqref="A201:XFD202"/>
+    <sheetView topLeftCell="A160" workbookViewId="0">
+      <selection activeCell="A160" sqref="A160:XFD160"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -15479,7 +15483,7 @@
   <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="V19" sqref="V19"/>
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -15503,11 +15507,11 @@
         <v>1073</v>
       </c>
       <c r="B2">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C2">
         <f>B2/239</f>
-        <v>0.5104602510460251</v>
+        <v>0.50627615062761511</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
@@ -15518,7 +15522,7 @@
         <v>38</v>
       </c>
       <c r="C3">
-        <f t="shared" ref="C3:C8" si="0">B3/239</f>
+        <f t="shared" ref="C3:C6" si="0">B3/239</f>
         <v>0.15899581589958159</v>
       </c>
     </row>
@@ -15551,11 +15555,11 @@
         <v>1091</v>
       </c>
       <c r="B6">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C6">
         <f t="shared" si="0"/>
-        <v>7.1129707112970716E-2</v>
+        <v>8.3682008368200833E-2</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
@@ -15582,7 +15586,7 @@
   <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="V18" sqref="V18"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -15614,8 +15618,8 @@
         <v>13</v>
       </c>
       <c r="C3">
-        <f>B3/27</f>
-        <v>0.48148148148148145</v>
+        <f>B3/28</f>
+        <v>0.4642857142857143</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
@@ -15626,8 +15630,8 @@
         <v>7</v>
       </c>
       <c r="C4">
-        <f t="shared" ref="C4:C5" si="0">B4/27</f>
-        <v>0.25925925925925924</v>
+        <f t="shared" ref="C4:C5" si="0">B4/28</f>
+        <v>0.25</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
@@ -15635,11 +15639,11 @@
         <v>1088</v>
       </c>
       <c r="B5">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C5">
         <f t="shared" si="0"/>
-        <v>0.25925925925925924</v>
+        <v>0.2857142857142857</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
@@ -15647,11 +15651,11 @@
         <v>1084</v>
       </c>
       <c r="B7">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C7">
         <f>B7/239</f>
-        <v>0.52301255230125521</v>
+        <v>0.51882845188284521</v>
       </c>
     </row>
   </sheetData>
@@ -16364,10 +16368,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K8"/>
+  <dimension ref="A1:K9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -16582,7 +16586,7 @@
         <v>342</v>
       </c>
       <c r="H7" t="s">
-        <v>1027</v>
+        <v>1095</v>
       </c>
       <c r="I7" t="s">
         <v>161</v>
@@ -16611,13 +16615,45 @@
         <v>342</v>
       </c>
       <c r="H8" t="s">
-        <v>1027</v>
+        <v>1095</v>
       </c>
       <c r="I8" t="s">
         <v>161</v>
       </c>
       <c r="J8" t="s">
         <v>1032</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>158</v>
+      </c>
+      <c r="B9" t="s">
+        <v>703</v>
+      </c>
+      <c r="C9" t="s">
+        <v>704</v>
+      </c>
+      <c r="D9">
+        <v>2017</v>
+      </c>
+      <c r="E9" t="s">
+        <v>705</v>
+      </c>
+      <c r="G9" t="s">
+        <v>342</v>
+      </c>
+      <c r="H9" t="s">
+        <v>1095</v>
+      </c>
+      <c r="I9" t="s">
+        <v>161</v>
+      </c>
+      <c r="J9" t="s">
+        <v>706</v>
+      </c>
+      <c r="K9" t="s">
+        <v>573</v>
       </c>
     </row>
   </sheetData>

--- a/full-text/test_prior 90.xlsx
+++ b/full-text/test_prior 90.xlsx
@@ -3995,63 +3995,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="2880" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t>Prioritization Goals</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:layout/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="2880" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
+    <c:autoTitleDeleted val="1"/>
     <c:plotArea>
       <c:layout/>
       <c:barChart>
@@ -4134,8 +4078,8 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="-55392736"/>
-        <c:axId val="-473305760"/>
+        <c:axId val="-9799680"/>
+        <c:axId val="-9811376"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -4219,11 +4163,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-473751072"/>
-        <c:axId val="-443686432"/>
+        <c:axId val="-9821696"/>
+        <c:axId val="-9817632"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-55392736"/>
+        <c:axId val="-9799680"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4266,7 +4210,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-473305760"/>
+        <c:crossAx val="-9811376"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4274,7 +4218,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-473305760"/>
+        <c:axId val="-9811376"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4324,12 +4268,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-55392736"/>
+        <c:crossAx val="-9799680"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-443686432"/>
+        <c:axId val="-9817632"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="0.837"/>
@@ -4368,12 +4312,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-473751072"/>
+        <c:crossAx val="-9821696"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="-473751072"/>
+        <c:axId val="-9821696"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4383,7 +4327,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-443686432"/>
+        <c:crossAx val="-9817632"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4481,69 +4425,13 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="2880" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t>Data Types</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:layout/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="2880" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
+    <c:autoTitleDeleted val="1"/>
     <c:plotArea>
       <c:layout/>
       <c:pieChart>
         <c:varyColors val="1"/>
         <c:ser>
-          <c:idx val="0"/>
+          <c:idx val="1"/>
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
@@ -4601,6 +4489,103 @@
               <a:effectLst/>
             </c:spPr>
           </c:dPt>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="0"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-0.0903082024926525"/>
+                  <c:y val="0.191060085610104"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="bestFit"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="2"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="0.0190916853956129"/>
+                  <c:y val="0.0867515721608624"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="bestFit"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="3200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="bg1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="ctr"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="1"/>
+            <c:leaderLines>
+              <c:spPr>
+                <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="35000"/>
+                      <a:lumOff val="65000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:round/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+            </c:leaderLines>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
           <c:cat>
             <c:strRef>
               <c:f>Data!$A$2:$A$4</c:f>
@@ -4638,11 +4623,12 @@
           </c:val>
         </c:ser>
         <c:dLbls>
+          <c:dLblPos val="ctr"/>
           <c:showLegendKey val="0"/>
           <c:showVal val="0"/>
           <c:showCatName val="0"/>
           <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
+          <c:showPercent val="1"/>
           <c:showBubbleSize val="0"/>
           <c:showLeaderLines val="1"/>
         </c:dLbls>
@@ -4712,7 +4698,7 @@
     <a:lstStyle/>
     <a:p>
       <a:pPr>
-        <a:defRPr sz="2400"/>
+        <a:defRPr/>
       </a:pPr>
       <a:endParaRPr lang="en-US"/>
     </a:p>
@@ -4739,63 +4725,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="2880" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t>Information</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:layout/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="2880" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
+    <c:autoTitleDeleted val="1"/>
     <c:plotArea>
       <c:layout/>
       <c:barChart>
@@ -4890,8 +4820,8 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="-504486368"/>
-        <c:axId val="-473180192"/>
+        <c:axId val="-10292400"/>
+        <c:axId val="-10298864"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -4987,11 +4917,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-473200928"/>
-        <c:axId val="-456587600"/>
+        <c:axId val="-10320592"/>
+        <c:axId val="-10311840"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-504486368"/>
+        <c:axId val="-10292400"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5034,7 +4964,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-473180192"/>
+        <c:crossAx val="-10298864"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5042,7 +4972,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-473180192"/>
+        <c:axId val="-10298864"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5093,12 +5023,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-504486368"/>
+        <c:crossAx val="-10292400"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-456587600"/>
+        <c:axId val="-10311840"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5134,12 +5064,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-473200928"/>
+        <c:crossAx val="-10320592"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="-473200928"/>
+        <c:axId val="-10320592"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5149,7 +5079,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-456587600"/>
+        <c:crossAx val="-10311840"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5247,68 +5177,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="2880" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t>Method for black</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-US" baseline="0"/>
-              <a:t> box testing</a:t>
-            </a:r>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:layout/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="2880" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
+    <c:autoTitleDeleted val="1"/>
     <c:plotArea>
       <c:layout/>
       <c:pieChart>
@@ -5372,6 +5241,61 @@
               <a:effectLst/>
             </c:spPr>
           </c:dPt>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="3200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="bg1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="ctr"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="1"/>
+            <c:leaderLines>
+              <c:spPr>
+                <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="35000"/>
+                      <a:lumOff val="65000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:round/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+            </c:leaderLines>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
           <c:cat>
             <c:strRef>
               <c:f>Method!$A$3:$A$5</c:f>
@@ -5408,107 +5332,13 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Method!$C$2</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Percentage</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:dPt>
-            <c:idx val="0"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="19050">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="1"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:ln w="19050">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="2"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
-              <a:ln w="19050">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:dPt>
-          <c:cat>
-            <c:strRef>
-              <c:f>Method!$A$3:$A$5</c:f>
-              <c:strCache>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>History-based</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Test case-based</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Feedback-based</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Method!$C$3:$C$5</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>0.464285714285714</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.25</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.285714285714286</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
         <c:dLbls>
+          <c:dLblPos val="ctr"/>
           <c:showLegendKey val="0"/>
           <c:showVal val="0"/>
           <c:showCatName val="0"/>
           <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
+          <c:showPercent val="1"/>
           <c:showBubbleSize val="0"/>
           <c:showLeaderLines val="1"/>
         </c:dLbls>
@@ -5578,7 +5408,7 @@
     <a:lstStyle/>
     <a:p>
       <a:pPr>
-        <a:defRPr sz="2400"/>
+        <a:defRPr/>
       </a:pPr>
       <a:endParaRPr lang="en-US"/>
     </a:p>
@@ -7836,14 +7666,14 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>184150</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>584200</xdr:colOff>
-      <xdr:row>39</xdr:row>
-      <xdr:rowOff>12700</xdr:rowOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>647700</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -8236,8 +8066,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K243"/>
   <sheetViews>
-    <sheetView topLeftCell="A160" workbookViewId="0">
-      <selection activeCell="A160" sqref="A160:XFD160"/>
+    <sheetView topLeftCell="A215" workbookViewId="0">
+      <selection activeCell="I240" sqref="I1:I1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -15416,7 +15246,7 @@
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+      <selection activeCell="T19" sqref="T19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -15586,7 +15416,7 @@
   <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="T8" sqref="T8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -16370,7 +16200,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
       <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>

--- a/full-text/test_prior 90.xlsx
+++ b/full-text/test_prior 90.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="6200" yWindow="3180" windowWidth="40140" windowHeight="20140" activeTab="7"/>
+    <workbookView xWindow="6200" yWindow="3180" windowWidth="40140" windowHeight="20140" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="test_prior" sheetId="1" r:id="rId1"/>
@@ -4026,6 +4026,64 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="2400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
           <c:cat>
             <c:strRef>
               <c:f>Goal!$A$2:$A$5</c:f>
@@ -4078,8 +4136,8 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="-9799680"/>
-        <c:axId val="-9811376"/>
+        <c:axId val="-9568528"/>
+        <c:axId val="-90251296"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -4163,11 +4221,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-9821696"/>
-        <c:axId val="-9817632"/>
+        <c:axId val="-56042992"/>
+        <c:axId val="-470539200"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-9799680"/>
+        <c:axId val="-9568528"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4210,7 +4268,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-9811376"/>
+        <c:crossAx val="-90251296"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4218,7 +4276,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-9811376"/>
+        <c:axId val="-90251296"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4268,12 +4326,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-9799680"/>
+        <c:crossAx val="-9568528"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-9817632"/>
+        <c:axId val="-470539200"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="0.837"/>
@@ -4312,12 +4370,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-9821696"/>
+        <c:crossAx val="-56042992"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="-9821696"/>
+        <c:axId val="-56042992"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4327,7 +4385,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-9817632"/>
+        <c:crossAx val="-470539200"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4506,9 +4564,7 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
@@ -4527,9 +4583,7 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
               </c:extLst>
             </c:dLbl>
             <c:spPr>
@@ -4581,9 +4635,7 @@
               </c:spPr>
             </c:leaderLines>
             <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
-              </c:ext>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
             </c:extLst>
           </c:dLbls>
           <c:cat>
@@ -4644,7 +4696,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -4756,6 +4807,64 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="2400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
           <c:cat>
             <c:strRef>
               <c:f>Information!$A$2:$A$7</c:f>
@@ -4820,8 +4929,8 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="-10292400"/>
-        <c:axId val="-10298864"/>
+        <c:axId val="-453659552"/>
+        <c:axId val="-438997616"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -4917,11 +5026,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-10320592"/>
-        <c:axId val="-10311840"/>
+        <c:axId val="-28919264"/>
+        <c:axId val="-439965664"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-10292400"/>
+        <c:axId val="-453659552"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4964,7 +5073,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-10298864"/>
+        <c:crossAx val="-438997616"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4972,7 +5081,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-10298864"/>
+        <c:axId val="-438997616"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5023,12 +5132,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-10292400"/>
+        <c:crossAx val="-453659552"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-10311840"/>
+        <c:axId val="-439965664"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5064,12 +5173,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-10320592"/>
+        <c:crossAx val="-28919264"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="-10320592"/>
+        <c:axId val="-28919264"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5079,7 +5188,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-10311840"/>
+        <c:crossAx val="-439965664"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5291,9 +5400,7 @@
               </c:spPr>
             </c:leaderLines>
             <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
-              </c:ext>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
             </c:extLst>
           </c:dLbls>
           <c:cat>
@@ -5354,7 +5461,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -15164,7 +15270,7 @@
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="R20" sqref="R20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -15312,7 +15418,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
@@ -15500,7 +15606,7 @@
   <dimension ref="A1:K14"/>
   <sheetViews>
     <sheetView zoomScale="99" zoomScaleNormal="99" workbookViewId="0">
-      <selection activeCell="J36" sqref="J36"/>
+      <selection activeCell="K22" sqref="K22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -16200,7 +16306,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+    <sheetView topLeftCell="D1" workbookViewId="0">
       <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>

--- a/full-text/test_prior 90.xlsx
+++ b/full-text/test_prior 90.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="28615"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21601"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zhe/PycharmProjects/SLR_on_TCP/full-text/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\SLR_on_TCP\full-text\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96DC1D60-2B71-448A-9363-ED7A088B2E0D}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6200" yWindow="3180" windowWidth="40140" windowHeight="20140" activeTab="3"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="test_prior" sheetId="1" r:id="rId1"/>
@@ -21,10 +22,16 @@
     <sheet name="test case-based" sheetId="2" r:id="rId7"/>
     <sheet name="feedback-based" sheetId="4" r:id="rId8"/>
   </sheets>
-  <calcPr calcId="150001" concurrentCalc="0"/>
+  <calcPr calcId="191029" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
     </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -3328,7 +3335,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="21" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -3982,7 +3989,7 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -4065,7 +4072,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -4111,20 +4117,25 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>188.0</c:v>
+                  <c:v>188</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>7.0</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>32.0</c:v>
+                  <c:v>32</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>20.0</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-2AC8-4244-812D-BFBFE6325383}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -4195,21 +4206,26 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>0.786610878661088</c:v>
+                  <c:v>0.78661087866108792</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.0292887029288703</c:v>
+                  <c:v>2.9288702928870293E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.133891213389121</c:v>
+                  <c:v>0.13389121338912133</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.0836820083682008</c:v>
+                  <c:v>8.3682008368200833E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-2AC8-4244-812D-BFBFE6325383}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -4296,6 +4312,7 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -4334,8 +4351,8 @@
         <c:axId val="-470539200"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="0.837"/>
-          <c:min val="0.0"/>
+          <c:max val="0.83699999999999997"/>
+          <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="r"/>
@@ -4402,7 +4419,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -4470,7 +4486,7 @@
 </file>
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -4516,6 +4532,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-48FB-4183-97C6-13B149ACD755}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="1"/>
@@ -4531,6 +4552,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-48FB-4183-97C6-13B149ACD755}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="2"/>
@@ -4546,14 +4572,19 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000005-48FB-4183-97C6-13B149ACD755}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dLbls>
             <c:dLbl>
               <c:idx val="0"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-0.0903082024926525"/>
-                  <c:y val="0.191060085610104"/>
+                  <c:x val="-9.0308202492652506E-2"/>
+                  <c:y val="0.19106008561010401"/>
                 </c:manualLayout>
               </c:layout>
               <c:dLblPos val="bestFit"/>
@@ -4565,14 +4596,17 @@
               <c:showBubbleSize val="0"/>
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000001-48FB-4183-97C6-13B149ACD755}"/>
+                </c:ext>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="2"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="0.0190916853956129"/>
-                  <c:y val="0.0867515721608624"/>
+                  <c:x val="1.9091685395612901E-2"/>
+                  <c:y val="8.6751572160862406E-2"/>
                 </c:manualLayout>
               </c:layout>
               <c:dLblPos val="bestFit"/>
@@ -4584,6 +4618,9 @@
               <c:showBubbleSize val="0"/>
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000005-48FB-4183-97C6-13B149ACD755}"/>
+                </c:ext>
               </c:extLst>
             </c:dLbl>
             <c:spPr>
@@ -4662,17 +4699,22 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>50.0</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>179.0</c:v>
+                  <c:v>179</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>10.0</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-48FB-4183-97C6-13B149ACD755}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:dLblPos val="ctr"/>
@@ -4763,7 +4805,7 @@
 </file>
 
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -4846,7 +4888,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -4898,26 +4939,31 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>121.0</c:v>
+                  <c:v>121</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>38.0</c:v>
+                  <c:v>38</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>25.0</c:v>
+                  <c:v>25</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>75.0</c:v>
+                  <c:v>75</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>20.0</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>10.0</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-A6C5-41F6-A3F7-9E44A9D8A26C}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -4994,27 +5040,32 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>0.506276150627615</c:v>
+                  <c:v>0.50627615062761511</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.158995815899582</c:v>
+                  <c:v>0.15899581589958159</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.104602510460251</c:v>
+                  <c:v>0.10460251046025104</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.313807531380753</c:v>
+                  <c:v>0.31380753138075312</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.0836820083682008</c:v>
+                  <c:v>8.3682008368200833E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.0418410041841004</c:v>
+                  <c:v>4.1841004184100417E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-A6C5-41F6-A3F7-9E44A9D8A26C}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -5143,6 +5194,7 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="r"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -5205,7 +5257,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -5273,7 +5324,7 @@
 </file>
 
 <file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -5319,6 +5370,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-5F91-4968-80A6-80D305F9152F}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="1"/>
@@ -5334,6 +5390,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-5F91-4968-80A6-80D305F9152F}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="2"/>
@@ -5349,6 +5410,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000005-5F91-4968-80A6-80D305F9152F}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dLbls>
             <c:spPr>
@@ -5427,17 +5493,22 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>13.0</c:v>
+                  <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>7.0</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>8.0</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-5F91-4968-80A6-80D305F9152F}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:dLblPos val="ctr"/>
@@ -7748,7 +7819,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="4" name="Chart 3"/>
+        <xdr:cNvPr id="4" name="Chart 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -7783,7 +7860,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="4" name="Chart 3"/>
+        <xdr:cNvPr id="4" name="Chart 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -7818,7 +7901,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr>
           <a:graphicFrameLocks/>
         </xdr:cNvGraphicFramePr>
@@ -7855,7 +7944,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="Chart 2"/>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -8169,23 +8264,23 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K243"/>
   <sheetViews>
-    <sheetView topLeftCell="A215" workbookViewId="0">
-      <selection activeCell="I240" sqref="I1:I1048576"/>
+    <sheetView tabSelected="1" topLeftCell="C36" workbookViewId="0">
+      <selection activeCell="J46" sqref="J46"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="25.5" customWidth="1"/>
-    <col min="3" max="6" width="8.83203125" customWidth="1"/>
-    <col min="7" max="7" width="19.1640625" customWidth="1"/>
-    <col min="8" max="8" width="46.1640625" customWidth="1"/>
-    <col min="9" max="9" width="34.1640625" customWidth="1"/>
+    <col min="2" max="2" width="25.453125" customWidth="1"/>
+    <col min="3" max="6" width="8.81640625" customWidth="1"/>
+    <col min="7" max="7" width="19.1796875" customWidth="1"/>
+    <col min="8" max="8" width="46.1796875" customWidth="1"/>
+    <col min="9" max="9" width="34.1796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -8214,7 +8309,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>0</v>
       </c>
@@ -8243,7 +8338,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>1</v>
       </c>
@@ -8272,7 +8367,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>2</v>
       </c>
@@ -8304,7 +8399,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>3</v>
       </c>
@@ -8333,7 +8428,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>4</v>
       </c>
@@ -8356,7 +8451,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>5</v>
       </c>
@@ -8385,7 +8480,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>6</v>
       </c>
@@ -8414,7 +8509,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>7</v>
       </c>
@@ -8443,7 +8538,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>8</v>
       </c>
@@ -8472,7 +8567,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>9</v>
       </c>
@@ -8501,7 +8596,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>10</v>
       </c>
@@ -8530,7 +8625,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>11</v>
       </c>
@@ -8559,7 +8654,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>12</v>
       </c>
@@ -8588,7 +8683,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A15">
         <v>13</v>
       </c>
@@ -8620,7 +8715,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A16">
         <v>14</v>
       </c>
@@ -8649,7 +8744,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A17">
         <v>15</v>
       </c>
@@ -8678,7 +8773,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A18">
         <v>16</v>
       </c>
@@ -8707,7 +8802,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A19">
         <v>17</v>
       </c>
@@ -8736,7 +8831,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A20">
         <v>18</v>
       </c>
@@ -8768,7 +8863,7 @@
         <v>929</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A21">
         <v>19</v>
       </c>
@@ -8797,7 +8892,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A22">
         <v>20</v>
       </c>
@@ -8826,7 +8921,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A23">
         <v>21</v>
       </c>
@@ -8855,7 +8950,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A24">
         <v>22</v>
       </c>
@@ -8875,7 +8970,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A25">
         <v>23</v>
       </c>
@@ -8904,7 +8999,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A26">
         <v>24</v>
       </c>
@@ -8933,7 +9028,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A27">
         <v>25</v>
       </c>
@@ -8962,7 +9057,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A28">
         <v>26</v>
       </c>
@@ -8991,7 +9086,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A29">
         <v>27</v>
       </c>
@@ -9020,7 +9115,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A30">
         <v>28</v>
       </c>
@@ -9049,7 +9144,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A31">
         <v>29</v>
       </c>
@@ -9078,7 +9173,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A32">
         <v>30</v>
       </c>
@@ -9107,7 +9202,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A33">
         <v>31</v>
       </c>
@@ -9136,7 +9231,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A34">
         <v>32</v>
       </c>
@@ -9165,7 +9260,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A35">
         <v>33</v>
       </c>
@@ -9191,7 +9286,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A36">
         <v>34</v>
       </c>
@@ -9220,7 +9315,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A37">
         <v>35</v>
       </c>
@@ -9249,7 +9344,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A38">
         <v>36</v>
       </c>
@@ -9278,7 +9373,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A39">
         <v>37</v>
       </c>
@@ -9307,7 +9402,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A40">
         <v>38</v>
       </c>
@@ -9336,7 +9431,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A41">
         <v>39</v>
       </c>
@@ -9368,7 +9463,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A42">
         <v>40</v>
       </c>
@@ -9397,7 +9492,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A43">
         <v>41</v>
       </c>
@@ -9426,7 +9521,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A44">
         <v>42</v>
       </c>
@@ -9455,7 +9550,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A45">
         <v>43</v>
       </c>
@@ -9475,16 +9570,16 @@
         <v>230</v>
       </c>
       <c r="H45" t="s">
-        <v>230</v>
+        <v>20</v>
       </c>
       <c r="I45" t="s">
-        <v>230</v>
+        <v>161</v>
       </c>
       <c r="J45" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.2">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A46">
         <v>44</v>
       </c>
@@ -9507,7 +9602,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A47">
         <v>45</v>
       </c>
@@ -9536,7 +9631,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A48">
         <v>46</v>
       </c>
@@ -9565,7 +9660,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A49">
         <v>47</v>
       </c>
@@ -9591,7 +9686,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A50">
         <v>48</v>
       </c>
@@ -9620,7 +9715,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A51">
         <v>49</v>
       </c>
@@ -9649,7 +9744,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A52">
         <v>50</v>
       </c>
@@ -9678,7 +9773,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A53">
         <v>51</v>
       </c>
@@ -9707,7 +9802,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A54">
         <v>52</v>
       </c>
@@ -9736,7 +9831,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A55">
         <v>53</v>
       </c>
@@ -9765,7 +9860,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A56">
         <v>54</v>
       </c>
@@ -9797,7 +9892,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A57">
         <v>55</v>
       </c>
@@ -9826,7 +9921,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A58">
         <v>56</v>
       </c>
@@ -9849,7 +9944,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A59">
         <v>57</v>
       </c>
@@ -9878,7 +9973,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A60">
         <v>58</v>
       </c>
@@ -9907,7 +10002,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A61">
         <v>59</v>
       </c>
@@ -9939,7 +10034,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A62">
         <v>60</v>
       </c>
@@ -9968,7 +10063,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A63">
         <v>61</v>
       </c>
@@ -9997,7 +10092,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A64">
         <v>62</v>
       </c>
@@ -10026,7 +10121,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A65">
         <v>63</v>
       </c>
@@ -10055,7 +10150,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A66">
         <v>64</v>
       </c>
@@ -10084,7 +10179,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A67">
         <v>65</v>
       </c>
@@ -10113,7 +10208,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A68">
         <v>66</v>
       </c>
@@ -10142,7 +10237,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A69">
         <v>67</v>
       </c>
@@ -10171,7 +10266,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A70">
         <v>68</v>
       </c>
@@ -10200,7 +10295,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="71" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A71">
         <v>69</v>
       </c>
@@ -10229,7 +10324,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="72" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A72">
         <v>70</v>
       </c>
@@ -10258,7 +10353,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="73" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A73">
         <v>71</v>
       </c>
@@ -10287,7 +10382,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="74" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A74">
         <v>72</v>
       </c>
@@ -10316,7 +10411,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="75" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A75">
         <v>73</v>
       </c>
@@ -10345,7 +10440,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="76" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A76">
         <v>74</v>
       </c>
@@ -10374,7 +10469,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="77" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A77">
         <v>75</v>
       </c>
@@ -10403,7 +10498,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="78" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A78">
         <v>76</v>
       </c>
@@ -10432,7 +10527,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="79" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A79">
         <v>77</v>
       </c>
@@ -10461,7 +10556,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="80" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A80">
         <v>78</v>
       </c>
@@ -10490,7 +10585,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A81">
         <v>79</v>
       </c>
@@ -10519,7 +10614,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A82">
         <v>80</v>
       </c>
@@ -10548,7 +10643,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A83">
         <v>81</v>
       </c>
@@ -10577,7 +10672,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A84">
         <v>82</v>
       </c>
@@ -10606,7 +10701,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A85">
         <v>83</v>
       </c>
@@ -10635,7 +10730,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A86">
         <v>84</v>
       </c>
@@ -10667,7 +10762,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A87">
         <v>85</v>
       </c>
@@ -10696,7 +10791,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A88">
         <v>86</v>
       </c>
@@ -10725,7 +10820,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A89">
         <v>87</v>
       </c>
@@ -10754,7 +10849,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A90">
         <v>88</v>
       </c>
@@ -10783,7 +10878,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A91">
         <v>89</v>
       </c>
@@ -10812,7 +10907,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A92">
         <v>90</v>
       </c>
@@ -10841,7 +10936,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A93">
         <v>91</v>
       </c>
@@ -10870,7 +10965,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A94">
         <v>92</v>
       </c>
@@ -10899,7 +10994,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A95">
         <v>93</v>
       </c>
@@ -10928,7 +11023,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A96">
         <v>94</v>
       </c>
@@ -10960,7 +11055,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="97" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A97">
         <v>95</v>
       </c>
@@ -10989,7 +11084,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="98" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A98">
         <v>96</v>
       </c>
@@ -11018,7 +11113,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="99" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A99">
         <v>97</v>
       </c>
@@ -11047,7 +11142,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="100" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A100">
         <v>98</v>
       </c>
@@ -11076,7 +11171,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="101" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A101">
         <v>99</v>
       </c>
@@ -11105,7 +11200,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="102" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A102">
         <v>100</v>
       </c>
@@ -11134,7 +11229,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="103" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A103">
         <v>101</v>
       </c>
@@ -11163,7 +11258,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="104" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A104">
         <v>102</v>
       </c>
@@ -11192,7 +11287,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="105" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A105">
         <v>103</v>
       </c>
@@ -11221,7 +11316,7 @@
         <v>932</v>
       </c>
     </row>
-    <row r="106" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A106">
         <v>104</v>
       </c>
@@ -11250,7 +11345,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="107" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A107">
         <v>105</v>
       </c>
@@ -11279,7 +11374,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="108" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A108">
         <v>106</v>
       </c>
@@ -11308,7 +11403,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="109" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A109">
         <v>107</v>
       </c>
@@ -11337,7 +11432,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="110" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A110">
         <v>108</v>
       </c>
@@ -11366,7 +11461,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="111" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A111">
         <v>109</v>
       </c>
@@ -11395,7 +11490,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="112" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A112">
         <v>110</v>
       </c>
@@ -11424,7 +11519,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A113">
         <v>111</v>
       </c>
@@ -11453,7 +11548,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A114">
         <v>112</v>
       </c>
@@ -11482,7 +11577,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A115">
         <v>113</v>
       </c>
@@ -11511,7 +11606,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A116">
         <v>114</v>
       </c>
@@ -11540,7 +11635,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A117">
         <v>115</v>
       </c>
@@ -11569,7 +11664,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A118">
         <v>116</v>
       </c>
@@ -11598,7 +11693,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A119">
         <v>117</v>
       </c>
@@ -11627,7 +11722,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A120">
         <v>118</v>
       </c>
@@ -11656,7 +11751,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A121">
         <v>119</v>
       </c>
@@ -11685,7 +11780,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A122">
         <v>120</v>
       </c>
@@ -11714,7 +11809,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A123">
         <v>121</v>
       </c>
@@ -11743,7 +11838,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A124">
         <v>122</v>
       </c>
@@ -11772,7 +11867,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A125">
         <v>123</v>
       </c>
@@ -11804,7 +11899,7 @@
         <v>573</v>
       </c>
     </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A126">
         <v>124</v>
       </c>
@@ -11833,7 +11928,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A127">
         <v>125</v>
       </c>
@@ -11862,7 +11957,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A128">
         <v>126</v>
       </c>
@@ -11891,7 +11986,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A129">
         <v>127</v>
       </c>
@@ -11920,7 +12015,7 @@
         <v>590</v>
       </c>
     </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A130">
         <v>128</v>
       </c>
@@ -11949,7 +12044,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A131">
         <v>129</v>
       </c>
@@ -11978,7 +12073,7 @@
         <v>599</v>
       </c>
     </row>
-    <row r="132" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A132">
         <v>130</v>
       </c>
@@ -12007,7 +12102,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="133" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A133">
         <v>131</v>
       </c>
@@ -12036,7 +12131,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="134" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A134">
         <v>132</v>
       </c>
@@ -12068,7 +12163,7 @@
         <v>573</v>
       </c>
     </row>
-    <row r="135" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A135">
         <v>133</v>
       </c>
@@ -12097,7 +12192,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="136" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A136">
         <v>134</v>
       </c>
@@ -12126,7 +12221,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="137" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A137">
         <v>135</v>
       </c>
@@ -12155,7 +12250,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="138" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A138">
         <v>136</v>
       </c>
@@ -12184,7 +12279,7 @@
         <v>628</v>
       </c>
     </row>
-    <row r="139" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A139">
         <v>137</v>
       </c>
@@ -12213,7 +12308,7 @@
         <v>628</v>
       </c>
     </row>
-    <row r="140" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A140">
         <v>138</v>
       </c>
@@ -12242,7 +12337,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="141" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A141">
         <v>139</v>
       </c>
@@ -12271,7 +12366,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="142" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A142">
         <v>140</v>
       </c>
@@ -12300,7 +12395,7 @@
         <v>628</v>
       </c>
     </row>
-    <row r="143" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A143">
         <v>141</v>
       </c>
@@ -12329,7 +12424,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="144" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A144">
         <v>142</v>
       </c>
@@ -12358,7 +12453,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="145" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A145">
         <v>143</v>
       </c>
@@ -12390,7 +12485,7 @@
         <v>573</v>
       </c>
     </row>
-    <row r="146" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A146">
         <v>144</v>
       </c>
@@ -12419,7 +12514,7 @@
         <v>654</v>
       </c>
     </row>
-    <row r="147" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A147">
         <v>145</v>
       </c>
@@ -12448,7 +12543,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="148" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A148">
         <v>146</v>
       </c>
@@ -12477,7 +12572,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="149" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A149">
         <v>147</v>
       </c>
@@ -12506,7 +12601,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="150" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A150">
         <v>148</v>
       </c>
@@ -12535,7 +12630,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="151" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A151">
         <v>149</v>
       </c>
@@ -12564,7 +12659,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="152" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A152">
         <v>150</v>
       </c>
@@ -12593,7 +12688,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="153" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A153">
         <v>151</v>
       </c>
@@ -12622,7 +12717,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="154" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A154">
         <v>152</v>
       </c>
@@ -12651,7 +12746,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="155" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A155">
         <v>153</v>
       </c>
@@ -12683,7 +12778,7 @@
         <v>573</v>
       </c>
     </row>
-    <row r="156" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A156">
         <v>154</v>
       </c>
@@ -12712,7 +12807,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="157" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A157">
         <v>155</v>
       </c>
@@ -12741,7 +12836,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="158" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A158">
         <v>156</v>
       </c>
@@ -12770,7 +12865,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="159" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A159">
         <v>157</v>
       </c>
@@ -12799,7 +12894,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="160" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A160">
         <v>158</v>
       </c>
@@ -12831,7 +12926,7 @@
         <v>573</v>
       </c>
     </row>
-    <row r="161" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A161">
         <v>159</v>
       </c>
@@ -12860,7 +12955,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="162" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A162">
         <v>160</v>
       </c>
@@ -12889,7 +12984,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="163" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A163">
         <v>161</v>
       </c>
@@ -12918,7 +13013,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="164" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A164">
         <v>162</v>
       </c>
@@ -12947,7 +13042,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="165" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A165">
         <v>163</v>
       </c>
@@ -12976,7 +13071,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="166" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A166">
         <v>164</v>
       </c>
@@ -13005,7 +13100,7 @@
         <v>727</v>
       </c>
     </row>
-    <row r="167" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A167">
         <v>165</v>
       </c>
@@ -13034,7 +13129,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="168" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A168">
         <v>166</v>
       </c>
@@ -13063,7 +13158,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="169" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A169">
         <v>167</v>
       </c>
@@ -13092,7 +13187,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="170" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A170">
         <v>168</v>
       </c>
@@ -13121,7 +13216,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="171" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A171">
         <v>169</v>
       </c>
@@ -13150,7 +13245,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="172" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A172">
         <v>170</v>
       </c>
@@ -13179,7 +13274,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="173" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A173">
         <v>171</v>
       </c>
@@ -13208,7 +13303,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="174" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A174">
         <v>172</v>
       </c>
@@ -13237,7 +13332,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="175" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A175">
         <v>173</v>
       </c>
@@ -13266,7 +13361,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="176" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A176">
         <v>174</v>
       </c>
@@ -13295,7 +13390,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="177" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A177">
         <v>175</v>
       </c>
@@ -13324,7 +13419,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="178" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A178">
         <v>176</v>
       </c>
@@ -13356,7 +13451,7 @@
         <v>773</v>
       </c>
     </row>
-    <row r="179" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A179">
         <v>177</v>
       </c>
@@ -13388,7 +13483,7 @@
         <v>573</v>
       </c>
     </row>
-    <row r="180" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A180">
         <v>178</v>
       </c>
@@ -13417,7 +13512,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="181" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A181">
         <v>179</v>
       </c>
@@ -13446,7 +13541,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="182" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A182">
         <v>180</v>
       </c>
@@ -13475,7 +13570,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="183" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A183">
         <v>181</v>
       </c>
@@ -13504,7 +13599,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="184" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A184">
         <v>182</v>
       </c>
@@ -13533,7 +13628,7 @@
         <v>797</v>
       </c>
     </row>
-    <row r="185" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A185">
         <v>183</v>
       </c>
@@ -13562,7 +13657,7 @@
         <v>803</v>
       </c>
     </row>
-    <row r="186" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A186">
         <v>184</v>
       </c>
@@ -13591,7 +13686,7 @@
         <v>808</v>
       </c>
     </row>
-    <row r="187" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A187">
         <v>185</v>
       </c>
@@ -13620,7 +13715,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="188" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A188">
         <v>186</v>
       </c>
@@ -13649,7 +13744,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="189" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A189">
         <v>187</v>
       </c>
@@ -13678,7 +13773,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="190" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A190">
         <v>188</v>
       </c>
@@ -13707,7 +13802,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="191" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A191">
         <v>189</v>
       </c>
@@ -13736,7 +13831,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="192" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A192">
         <v>190</v>
       </c>
@@ -13765,7 +13860,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="193" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A193">
         <v>191</v>
       </c>
@@ -13794,7 +13889,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="194" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A194">
         <v>192</v>
       </c>
@@ -13826,7 +13921,7 @@
         <v>843</v>
       </c>
     </row>
-    <row r="195" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A195">
         <v>193</v>
       </c>
@@ -13855,7 +13950,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="196" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A196">
         <v>194</v>
       </c>
@@ -13887,7 +13982,7 @@
         <v>852</v>
       </c>
     </row>
-    <row r="197" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A197">
         <v>195</v>
       </c>
@@ -13916,7 +14011,7 @@
         <v>856</v>
       </c>
     </row>
-    <row r="198" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A198">
         <v>196</v>
       </c>
@@ -13945,7 +14040,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="199" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A199">
         <v>197</v>
       </c>
@@ -13977,7 +14072,7 @@
         <v>865</v>
       </c>
     </row>
-    <row r="200" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A200">
         <v>198</v>
       </c>
@@ -14009,7 +14104,7 @@
         <v>928</v>
       </c>
     </row>
-    <row r="201" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A201">
         <v>199</v>
       </c>
@@ -14038,7 +14133,7 @@
         <v>877</v>
       </c>
     </row>
-    <row r="202" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A202">
         <v>200</v>
       </c>
@@ -14067,7 +14162,7 @@
         <v>877</v>
       </c>
     </row>
-    <row r="203" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A203">
         <v>201</v>
       </c>
@@ -14096,7 +14191,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="204" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A204">
         <v>202</v>
       </c>
@@ -14125,7 +14220,7 @@
         <v>891</v>
       </c>
     </row>
-    <row r="205" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A205">
         <v>203</v>
       </c>
@@ -14154,7 +14249,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="206" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A206">
         <v>204</v>
       </c>
@@ -14183,7 +14278,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="207" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A207">
         <v>205</v>
       </c>
@@ -14212,7 +14307,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="208" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A208">
         <v>206</v>
       </c>
@@ -14241,7 +14336,7 @@
         <v>910</v>
       </c>
     </row>
-    <row r="209" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A209">
         <v>207</v>
       </c>
@@ -14270,7 +14365,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="210" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A210">
         <v>208</v>
       </c>
@@ -14299,7 +14394,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="211" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A211">
         <v>209</v>
       </c>
@@ -14328,7 +14423,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="212" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A212">
         <v>210</v>
       </c>
@@ -14357,7 +14452,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="213" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A213">
         <v>211</v>
       </c>
@@ -14386,7 +14481,7 @@
         <v>1032</v>
       </c>
     </row>
-    <row r="214" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A214">
         <v>212</v>
       </c>
@@ -14415,7 +14510,7 @@
         <v>1029</v>
       </c>
     </row>
-    <row r="215" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A215">
         <v>213</v>
       </c>
@@ -14444,7 +14539,7 @@
         <v>1031</v>
       </c>
     </row>
-    <row r="216" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A216">
         <v>214</v>
       </c>
@@ -14473,7 +14568,7 @@
         <v>1032</v>
       </c>
     </row>
-    <row r="217" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A217">
         <v>215</v>
       </c>
@@ -14502,7 +14597,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="218" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A218" s="2">
         <v>216</v>
       </c>
@@ -14531,7 +14626,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="219" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A219" s="2">
         <v>217</v>
       </c>
@@ -14560,7 +14655,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="220" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A220">
         <v>218</v>
       </c>
@@ -14589,7 +14684,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="221" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A221" s="2">
         <v>219</v>
       </c>
@@ -14609,7 +14704,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="222" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A222">
         <v>220</v>
       </c>
@@ -14638,7 +14733,7 @@
         <v>1037</v>
       </c>
     </row>
-    <row r="223" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A223">
         <v>221</v>
       </c>
@@ -14667,7 +14762,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="224" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A224">
         <v>222</v>
       </c>
@@ -14696,7 +14791,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="225" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A225">
         <v>223</v>
       </c>
@@ -14725,7 +14820,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="226" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A226">
         <v>224</v>
       </c>
@@ -14754,7 +14849,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="227" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A227">
         <v>225</v>
       </c>
@@ -14783,7 +14878,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="228" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A228">
         <v>226</v>
       </c>
@@ -14812,7 +14907,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="229" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A229">
         <v>227</v>
       </c>
@@ -14841,7 +14936,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="230" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A230">
         <v>228</v>
       </c>
@@ -14870,7 +14965,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="231" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A231">
         <v>229</v>
       </c>
@@ -14899,7 +14994,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="232" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A232">
         <v>230</v>
       </c>
@@ -14928,7 +15023,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="233" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A233">
         <v>231</v>
       </c>
@@ -14957,7 +15052,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="234" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A234">
         <v>232</v>
       </c>
@@ -14989,7 +15084,7 @@
         <v>1052</v>
       </c>
     </row>
-    <row r="235" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A235">
         <v>233</v>
       </c>
@@ -15018,7 +15113,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="236" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A236">
         <v>234</v>
       </c>
@@ -15047,7 +15142,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="237" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A237">
         <v>235</v>
       </c>
@@ -15076,7 +15171,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="238" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A238">
         <v>236</v>
       </c>
@@ -15108,7 +15203,7 @@
         <v>1058</v>
       </c>
     </row>
-    <row r="239" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A239">
         <v>237</v>
       </c>
@@ -15137,7 +15232,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="240" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A240">
         <v>238</v>
       </c>
@@ -15166,7 +15261,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="241" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A241">
         <v>239</v>
       </c>
@@ -15195,7 +15290,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="242" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A242">
         <v>240</v>
       </c>
@@ -15227,7 +15322,7 @@
         <v>1062</v>
       </c>
     </row>
-    <row r="243" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A243">
         <v>241</v>
       </c>
@@ -15257,7 +15352,7 @@
       </c>
     </row>
   </sheetData>
-  <sortState ref="A2:K212">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:K212">
     <sortCondition ref="A2:A212"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -15266,21 +15361,21 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="R20" sqref="R20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="19.1640625" customWidth="1"/>
+    <col min="1" max="1" width="19.1796875" customWidth="1"/>
     <col min="2" max="2" width="16" customWidth="1"/>
-    <col min="3" max="3" width="13.1640625" customWidth="1"/>
+    <col min="3" max="3" width="13.1796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>1066</v>
       </c>
@@ -15291,7 +15386,7 @@
         <v>1068</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>1069</v>
       </c>
@@ -15303,7 +15398,7 @@
         <v>0.78661087866108792</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>1070</v>
       </c>
@@ -15315,7 +15410,7 @@
         <v>2.9288702928870293E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>1071</v>
       </c>
@@ -15327,7 +15422,7 @@
         <v>0.13389121338912133</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>124</v>
       </c>
@@ -15348,19 +15443,19 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="T19" sqref="T19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="27.5" customWidth="1"/>
+    <col min="1" max="1" width="27.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>1086</v>
       </c>
@@ -15371,7 +15466,7 @@
         <v>1068</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>1094</v>
       </c>
@@ -15383,7 +15478,7 @@
         <v>0.20920502092050208</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>1083</v>
       </c>
@@ -15395,7 +15490,7 @@
         <v>0.7489539748953975</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>1093</v>
       </c>
@@ -15415,19 +15510,19 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:C7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="27.5" customWidth="1"/>
+    <col min="1" max="1" width="27.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>1072</v>
       </c>
@@ -15438,7 +15533,7 @@
         <v>1068</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>1073</v>
       </c>
@@ -15450,7 +15545,7 @@
         <v>0.50627615062761511</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>1092</v>
       </c>
@@ -15462,7 +15557,7 @@
         <v>0.15899581589958159</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>1076</v>
       </c>
@@ -15474,7 +15569,7 @@
         <v>0.10460251046025104</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>1074</v>
       </c>
@@ -15486,7 +15581,7 @@
         <v>0.31380753138075312</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>1091</v>
       </c>
@@ -15498,7 +15593,7 @@
         <v>8.3682008368200833E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>1075</v>
       </c>
@@ -15518,24 +15613,24 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="T8" sqref="T8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="27.5" customWidth="1"/>
+    <col min="1" max="1" width="27.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>1090</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>1085</v>
       </c>
@@ -15546,7 +15641,7 @@
         <v>1068</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>1087</v>
       </c>
@@ -15558,7 +15653,7 @@
         <v>0.4642857142857143</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>1089</v>
       </c>
@@ -15570,7 +15665,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>1088</v>
       </c>
@@ -15582,7 +15677,7 @@
         <v>0.2857142857142857</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>1084</v>
       </c>
@@ -15602,22 +15697,22 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:K14"/>
   <sheetViews>
     <sheetView zoomScale="99" zoomScaleNormal="99" workbookViewId="0">
       <selection activeCell="K22" sqref="K22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="2" max="2" width="17" customWidth="1"/>
-    <col min="8" max="8" width="16.5" customWidth="1"/>
-    <col min="9" max="9" width="16.1640625" customWidth="1"/>
-    <col min="10" max="10" width="30.6640625" customWidth="1"/>
+    <col min="8" max="8" width="16.453125" customWidth="1"/>
+    <col min="9" max="9" width="16.1796875" customWidth="1"/>
+    <col min="10" max="10" width="30.6328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -15646,7 +15741,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>7</v>
       </c>
@@ -15675,7 +15770,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>79</v>
       </c>
@@ -15704,7 +15799,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>84</v>
       </c>
@@ -15736,7 +15831,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>97</v>
       </c>
@@ -15765,7 +15860,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>124</v>
       </c>
@@ -15794,7 +15889,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>151</v>
       </c>
@@ -15823,7 +15918,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>184</v>
       </c>
@@ -15852,7 +15947,7 @@
         <v>808</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>182</v>
       </c>
@@ -15881,7 +15976,7 @@
         <v>797</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>120</v>
       </c>
@@ -15910,7 +16005,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>232</v>
       </c>
@@ -15942,7 +16037,7 @@
         <v>1052</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>212</v>
       </c>
@@ -15971,7 +16066,7 @@
         <v>1029</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>213</v>
       </c>
@@ -16000,7 +16095,7 @@
         <v>1031</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>226</v>
       </c>
@@ -16036,23 +16131,23 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:K8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A7" sqref="A7:XFD8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="13.6640625" customWidth="1"/>
-    <col min="3" max="3" width="15.6640625" customWidth="1"/>
-    <col min="5" max="5" width="38.83203125" customWidth="1"/>
-    <col min="8" max="8" width="39.6640625" customWidth="1"/>
-    <col min="9" max="9" width="32.5" customWidth="1"/>
+    <col min="2" max="2" width="13.6328125" customWidth="1"/>
+    <col min="3" max="3" width="15.6328125" customWidth="1"/>
+    <col min="5" max="5" width="38.81640625" customWidth="1"/>
+    <col min="8" max="8" width="39.6328125" customWidth="1"/>
+    <col min="9" max="9" width="32.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -16081,7 +16176,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>18</v>
       </c>
@@ -16113,7 +16208,7 @@
         <v>929</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>16</v>
       </c>
@@ -16142,7 +16237,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>39</v>
       </c>
@@ -16174,7 +16269,7 @@
         <v>931</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>59</v>
       </c>
@@ -16206,7 +16301,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>38</v>
       </c>
@@ -16235,7 +16330,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>198</v>
       </c>
@@ -16267,7 +16362,7 @@
         <v>928</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>195</v>
       </c>
@@ -16303,23 +16398,23 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:K9"/>
   <sheetViews>
     <sheetView topLeftCell="D1" workbookViewId="0">
       <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="75.33203125" customWidth="1"/>
-    <col min="3" max="3" width="28.6640625" customWidth="1"/>
-    <col min="8" max="8" width="40.6640625" customWidth="1"/>
-    <col min="9" max="9" width="35.6640625" customWidth="1"/>
-    <col min="10" max="10" width="48.1640625" customWidth="1"/>
+    <col min="2" max="2" width="75.36328125" customWidth="1"/>
+    <col min="3" max="3" width="28.6328125" customWidth="1"/>
+    <col min="8" max="8" width="40.6328125" customWidth="1"/>
+    <col min="9" max="9" width="35.6328125" customWidth="1"/>
+    <col min="10" max="10" width="48.1796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -16348,7 +16443,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>103</v>
       </c>
@@ -16377,7 +16472,7 @@
         <v>932</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>123</v>
       </c>
@@ -16409,7 +16504,7 @@
         <v>573</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>132</v>
       </c>
@@ -16441,7 +16536,7 @@
         <v>573</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>143</v>
       </c>
@@ -16473,7 +16568,7 @@
         <v>573</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>183</v>
       </c>
@@ -16502,7 +16597,7 @@
         <v>803</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>211</v>
       </c>
@@ -16531,7 +16626,7 @@
         <v>1032</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>214</v>
       </c>
@@ -16560,7 +16655,7 @@
         <v>1032</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>158</v>
       </c>
@@ -16593,7 +16688,7 @@
       </c>
     </row>
   </sheetData>
-  <sortState ref="A2:K13">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:K13">
     <sortCondition ref="A2:A13"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/full-text/test_prior 90.xlsx
+++ b/full-text/test_prior 90.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21629"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\SLR_on_TCP\full-text\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Download\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0AF18B62-4B30-41C9-B05D-6FA85F623D48}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7BC0022-F726-46FA-B690-EAF8E476CF6B}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1733" uniqueCount="1044">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1733" uniqueCount="1045">
   <si>
     <t>ID</t>
   </si>
@@ -3174,6 +3174,9 @@
   </si>
   <si>
     <t>history, current, test</t>
+  </si>
+  <si>
+    <t>ID_fulltext</t>
   </si>
 </sst>
 </file>
@@ -8111,8 +8114,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K243"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C206" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1:G1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -8126,7 +8129,7 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>1044</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>

--- a/full-text/test_prior 90.xlsx
+++ b/full-text/test_prior 90.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21629"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="28615"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Download\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zhe/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7BC0022-F726-46FA-B690-EAF8E476CF6B}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="19420" windowHeight="10420" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="test_prior" sheetId="1" r:id="rId1"/>
@@ -22,10 +21,13 @@
     <sheet name="test case-based" sheetId="2" r:id="rId7"/>
     <sheet name="feedback-based" sheetId="4" r:id="rId8"/>
   </sheets>
-  <calcPr calcId="191029" concurrentCalc="0"/>
+  <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
     </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -33,15 +35,12 @@
         <xcalcf:feature name="microsoft.com:FV"/>
       </xcalcf:calcFeatures>
     </ext>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
-      <mx:ArchID Flags="2"/>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1733" uniqueCount="1045">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1733" uniqueCount="1046">
   <si>
     <t>ID</t>
   </si>
@@ -3177,12 +3176,15 @@
   </si>
   <si>
     <t>ID_fulltext</t>
+  </si>
+  <si>
+    <t>multi-objective</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="21" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -3836,7 +3838,7 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -3917,7 +3919,7 @@
             <c:showPercent val="0"/>
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="0"/>
-            <c:extLst>
+            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
@@ -3964,21 +3966,21 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>188</c:v>
+                  <c:v>188.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>7</c:v>
+                  <c:v>7.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>32</c:v>
+                  <c:v>32.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>20</c:v>
+                  <c:v>20.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-2AC8-4244-812D-BFBFE6325383}"/>
             </c:ext>
@@ -3994,8 +3996,8 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="-9568528"/>
-        <c:axId val="-90251296"/>
+        <c:axId val="2015322768"/>
+        <c:axId val="2015327584"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -4053,22 +4055,22 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>0.78661087866108792</c:v>
+                  <c:v>0.786610878661088</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.9288702928870293E-2</c:v>
+                  <c:v>0.0292887029288703</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.13389121338912133</c:v>
+                  <c:v>0.133891213389121</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>8.3682008368200833E-2</c:v>
+                  <c:v>0.0836820083682008</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-2AC8-4244-812D-BFBFE6325383}"/>
             </c:ext>
@@ -4084,11 +4086,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-56042992"/>
-        <c:axId val="-470539200"/>
+        <c:axId val="2015336832"/>
+        <c:axId val="2015332400"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-9568528"/>
+        <c:axId val="2015322768"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4131,7 +4133,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-90251296"/>
+        <c:crossAx val="2015327584"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4139,7 +4141,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-90251296"/>
+        <c:axId val="2015327584"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4190,16 +4192,16 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-9568528"/>
+        <c:crossAx val="2015322768"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-470539200"/>
+        <c:axId val="2015332400"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="0.83699999999999997"/>
-          <c:min val="0"/>
+          <c:max val="0.837"/>
+          <c:min val="0.0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="r"/>
@@ -4234,12 +4236,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-56042992"/>
+        <c:crossAx val="2015336832"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="-56042992"/>
+        <c:axId val="2015336832"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4249,7 +4251,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-470539200"/>
+        <c:crossAx val="2015332400"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4333,7 +4335,7 @@
 </file>
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -4379,7 +4381,7 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
-            <c:extLst>
+            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                 <c16:uniqueId val="{00000001-48FB-4183-97C6-13B149ACD755}"/>
               </c:ext>
@@ -4399,7 +4401,7 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
-            <c:extLst>
+            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                 <c16:uniqueId val="{00000003-48FB-4183-97C6-13B149ACD755}"/>
               </c:ext>
@@ -4419,7 +4421,7 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
-            <c:extLst>
+            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                 <c16:uniqueId val="{00000005-48FB-4183-97C6-13B149ACD755}"/>
               </c:ext>
@@ -4430,8 +4432,8 @@
               <c:idx val="0"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-9.0308202492652506E-2"/>
-                  <c:y val="0.19106008561010401"/>
+                  <c:x val="-0.0903082024926525"/>
+                  <c:y val="0.191060085610104"/>
                 </c:manualLayout>
               </c:layout>
               <c:dLblPos val="bestFit"/>
@@ -4441,19 +4443,19 @@
               <c:showSerName val="0"/>
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+              <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000001-48FB-4183-97C6-13B149ACD755}"/>
                 </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="2"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="1.9091685395612901E-2"/>
-                  <c:y val="8.6751572160862406E-2"/>
+                  <c:x val="0.0190916853956129"/>
+                  <c:y val="0.0867515721608624"/>
                 </c:manualLayout>
               </c:layout>
               <c:dLblPos val="bestFit"/>
@@ -4463,11 +4465,11 @@
               <c:showSerName val="0"/>
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+              <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000005-48FB-4183-97C6-13B149ACD755}"/>
                 </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
               </c:extLst>
             </c:dLbl>
             <c:spPr>
@@ -4518,7 +4520,7 @@
                 <a:effectLst/>
               </c:spPr>
             </c:leaderLines>
-            <c:extLst>
+            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
             </c:extLst>
           </c:dLbls>
@@ -4546,18 +4548,18 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>50</c:v>
+                  <c:v>50.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>179</c:v>
+                  <c:v>179.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>10</c:v>
+                  <c:v>10.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000006-48FB-4183-97C6-13B149ACD755}"/>
             </c:ext>
@@ -4652,7 +4654,7 @@
 </file>
 
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -4733,7 +4735,7 @@
             <c:showPercent val="0"/>
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="0"/>
-            <c:extLst>
+            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
@@ -4786,27 +4788,27 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>121</c:v>
+                  <c:v>121.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>38</c:v>
+                  <c:v>38.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>25</c:v>
+                  <c:v>25.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>75</c:v>
+                  <c:v>75.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>20</c:v>
+                  <c:v>20.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>10</c:v>
+                  <c:v>10.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-A6C5-41F6-A3F7-9E44A9D8A26C}"/>
             </c:ext>
@@ -4822,8 +4824,8 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="-453659552"/>
-        <c:axId val="-438997616"/>
+        <c:axId val="2039521536"/>
+        <c:axId val="2039526320"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -4887,28 +4889,28 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>0.50627615062761511</c:v>
+                  <c:v>0.506276150627615</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.15899581589958159</c:v>
+                  <c:v>0.158995815899582</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.10460251046025104</c:v>
+                  <c:v>0.104602510460251</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.31380753138075312</c:v>
+                  <c:v>0.313807531380753</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>8.3682008368200833E-2</c:v>
+                  <c:v>0.0836820083682008</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>4.1841004184100417E-2</c:v>
+                  <c:v>0.0418410041841004</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-A6C5-41F6-A3F7-9E44A9D8A26C}"/>
             </c:ext>
@@ -4924,11 +4926,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-28919264"/>
-        <c:axId val="-439965664"/>
+        <c:axId val="2039822096"/>
+        <c:axId val="2039817728"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-453659552"/>
+        <c:axId val="2039521536"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4971,7 +4973,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-438997616"/>
+        <c:crossAx val="2039526320"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4979,7 +4981,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-438997616"/>
+        <c:axId val="2039526320"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5030,12 +5032,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-453659552"/>
+        <c:crossAx val="2039521536"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-439965664"/>
+        <c:axId val="2039817728"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5072,12 +5074,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-28919264"/>
+        <c:crossAx val="2039822096"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="-28919264"/>
+        <c:axId val="2039822096"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5087,7 +5089,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-439965664"/>
+        <c:crossAx val="2039817728"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5171,7 +5173,7 @@
 </file>
 
 <file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -5217,7 +5219,7 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
-            <c:extLst>
+            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                 <c16:uniqueId val="{00000001-5F91-4968-80A6-80D305F9152F}"/>
               </c:ext>
@@ -5237,7 +5239,7 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
-            <c:extLst>
+            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                 <c16:uniqueId val="{00000003-5F91-4968-80A6-80D305F9152F}"/>
               </c:ext>
@@ -5257,7 +5259,7 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
-            <c:extLst>
+            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                 <c16:uniqueId val="{00000005-5F91-4968-80A6-80D305F9152F}"/>
               </c:ext>
@@ -5312,7 +5314,7 @@
                 <a:effectLst/>
               </c:spPr>
             </c:leaderLines>
-            <c:extLst>
+            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
             </c:extLst>
           </c:dLbls>
@@ -5340,18 +5342,18 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>13</c:v>
+                  <c:v>13.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>7</c:v>
+                  <c:v>7.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>8</c:v>
+                  <c:v>8.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000006-5F91-4968-80A6-80D305F9152F}"/>
             </c:ext>
@@ -7669,7 +7671,7 @@
         <xdr:cNvPr id="4" name="Chart 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000004000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7710,7 +7712,7 @@
         <xdr:cNvPr id="4" name="Chart 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000004000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7751,7 +7753,7 @@
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7794,7 +7796,7 @@
         <xdr:cNvPr id="3" name="Chart 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0400-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8111,23 +8113,23 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K243"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="25.453125" customWidth="1"/>
-    <col min="3" max="6" width="8.81640625" customWidth="1"/>
-    <col min="7" max="7" width="19.1796875" customWidth="1"/>
-    <col min="8" max="8" width="46.1796875" customWidth="1"/>
-    <col min="9" max="9" width="34.1796875" customWidth="1"/>
+    <col min="2" max="2" width="25.5" customWidth="1"/>
+    <col min="3" max="6" width="8.83203125" customWidth="1"/>
+    <col min="7" max="7" width="19.1640625" customWidth="1"/>
+    <col min="8" max="8" width="46.1640625" customWidth="1"/>
+    <col min="9" max="9" width="34.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>1044</v>
       </c>
@@ -8153,7 +8155,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>0</v>
       </c>
@@ -8179,7 +8181,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>1</v>
       </c>
@@ -8205,7 +8207,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>2</v>
       </c>
@@ -8234,7 +8236,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>3</v>
       </c>
@@ -8260,7 +8262,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>4</v>
       </c>
@@ -8280,7 +8282,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>5</v>
       </c>
@@ -8306,7 +8308,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>6</v>
       </c>
@@ -8332,7 +8334,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>7</v>
       </c>
@@ -8358,7 +8360,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>8</v>
       </c>
@@ -8384,7 +8386,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>9</v>
       </c>
@@ -8410,7 +8412,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>10</v>
       </c>
@@ -8436,7 +8438,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>11</v>
       </c>
@@ -8462,7 +8464,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>12</v>
       </c>
@@ -8488,7 +8490,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>13</v>
       </c>
@@ -8517,7 +8519,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>14</v>
       </c>
@@ -8543,7 +8545,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>15</v>
       </c>
@@ -8569,7 +8571,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>16</v>
       </c>
@@ -8595,7 +8597,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>17</v>
       </c>
@@ -8621,7 +8623,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>18</v>
       </c>
@@ -8650,7 +8652,7 @@
         <v>884</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>19</v>
       </c>
@@ -8676,7 +8678,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>20</v>
       </c>
@@ -8702,7 +8704,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>21</v>
       </c>
@@ -8728,7 +8730,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>22</v>
       </c>
@@ -8748,7 +8750,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>23</v>
       </c>
@@ -8774,7 +8776,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>24</v>
       </c>
@@ -8800,7 +8802,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>25</v>
       </c>
@@ -8826,7 +8828,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>26</v>
       </c>
@@ -8852,7 +8854,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>27</v>
       </c>
@@ -8878,7 +8880,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>28</v>
       </c>
@@ -8904,7 +8906,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>29</v>
       </c>
@@ -8930,7 +8932,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>30</v>
       </c>
@@ -8956,7 +8958,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>31</v>
       </c>
@@ -8982,7 +8984,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>32</v>
       </c>
@@ -9008,7 +9010,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>33</v>
       </c>
@@ -9031,7 +9033,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>34</v>
       </c>
@@ -9057,7 +9059,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>35</v>
       </c>
@@ -9083,7 +9085,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>36</v>
       </c>
@@ -9109,7 +9111,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>37</v>
       </c>
@@ -9135,7 +9137,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>38</v>
       </c>
@@ -9161,7 +9163,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>39</v>
       </c>
@@ -9190,7 +9192,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>40</v>
       </c>
@@ -9216,7 +9218,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>41</v>
       </c>
@@ -9242,7 +9244,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>42</v>
       </c>
@@ -9268,7 +9270,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>43</v>
       </c>
@@ -9294,7 +9296,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A46">
         <v>44</v>
       </c>
@@ -9317,7 +9319,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A47">
         <v>45</v>
       </c>
@@ -9343,7 +9345,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A48">
         <v>46</v>
       </c>
@@ -9369,7 +9371,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A49">
         <v>47</v>
       </c>
@@ -9392,7 +9394,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A50">
         <v>48</v>
       </c>
@@ -9418,7 +9420,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A51">
         <v>49</v>
       </c>
@@ -9444,7 +9446,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A52">
         <v>50</v>
       </c>
@@ -9470,7 +9472,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A53">
         <v>51</v>
       </c>
@@ -9496,7 +9498,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A54">
         <v>52</v>
       </c>
@@ -9522,7 +9524,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A55">
         <v>53</v>
       </c>
@@ -9548,7 +9550,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A56">
         <v>54</v>
       </c>
@@ -9577,7 +9579,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A57">
         <v>55</v>
       </c>
@@ -9603,7 +9605,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A58">
         <v>56</v>
       </c>
@@ -9623,7 +9625,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A59">
         <v>57</v>
       </c>
@@ -9649,7 +9651,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A60">
         <v>58</v>
       </c>
@@ -9675,7 +9677,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A61">
         <v>59</v>
       </c>
@@ -9704,7 +9706,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A62">
         <v>60</v>
       </c>
@@ -9730,7 +9732,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A63">
         <v>61</v>
       </c>
@@ -9756,7 +9758,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A64">
         <v>62</v>
       </c>
@@ -9782,7 +9784,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A65">
         <v>63</v>
       </c>
@@ -9808,7 +9810,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A66">
         <v>64</v>
       </c>
@@ -9834,7 +9836,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A67">
         <v>65</v>
       </c>
@@ -9860,7 +9862,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A68">
         <v>66</v>
       </c>
@@ -9886,7 +9888,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A69">
         <v>67</v>
       </c>
@@ -9912,7 +9914,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A70">
         <v>68</v>
       </c>
@@ -9938,7 +9940,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="71" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A71">
         <v>69</v>
       </c>
@@ -9964,7 +9966,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="72" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A72">
         <v>70</v>
       </c>
@@ -9990,7 +9992,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="73" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A73">
         <v>71</v>
       </c>
@@ -10016,7 +10018,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="74" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A74">
         <v>72</v>
       </c>
@@ -10042,7 +10044,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="75" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A75">
         <v>73</v>
       </c>
@@ -10068,7 +10070,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="76" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A76">
         <v>74</v>
       </c>
@@ -10094,7 +10096,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="77" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A77">
         <v>75</v>
       </c>
@@ -10120,7 +10122,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="78" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A78">
         <v>76</v>
       </c>
@@ -10146,7 +10148,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="79" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A79">
         <v>77</v>
       </c>
@@ -10172,7 +10174,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="80" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A80">
         <v>78</v>
       </c>
@@ -10198,7 +10200,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A81">
         <v>79</v>
       </c>
@@ -10224,7 +10226,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A82">
         <v>80</v>
       </c>
@@ -10250,7 +10252,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A83">
         <v>81</v>
       </c>
@@ -10276,7 +10278,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A84">
         <v>82</v>
       </c>
@@ -10302,7 +10304,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A85">
         <v>83</v>
       </c>
@@ -10328,7 +10330,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A86">
         <v>84</v>
       </c>
@@ -10357,7 +10359,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A87">
         <v>85</v>
       </c>
@@ -10383,7 +10385,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A88">
         <v>86</v>
       </c>
@@ -10409,7 +10411,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A89">
         <v>87</v>
       </c>
@@ -10435,7 +10437,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A90">
         <v>88</v>
       </c>
@@ -10461,7 +10463,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A91">
         <v>89</v>
       </c>
@@ -10487,7 +10489,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A92">
         <v>90</v>
       </c>
@@ -10513,7 +10515,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A93">
         <v>91</v>
       </c>
@@ -10539,7 +10541,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A94">
         <v>92</v>
       </c>
@@ -10565,7 +10567,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A95">
         <v>93</v>
       </c>
@@ -10591,7 +10593,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A96">
         <v>94</v>
       </c>
@@ -10620,7 +10622,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="97" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A97">
         <v>95</v>
       </c>
@@ -10646,7 +10648,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="98" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A98">
         <v>96</v>
       </c>
@@ -10672,7 +10674,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="99" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A99">
         <v>97</v>
       </c>
@@ -10698,7 +10700,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="100" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A100">
         <v>98</v>
       </c>
@@ -10724,7 +10726,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="101" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A101">
         <v>99</v>
       </c>
@@ -10750,7 +10752,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="102" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A102">
         <v>100</v>
       </c>
@@ -10776,7 +10778,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="103" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A103">
         <v>101</v>
       </c>
@@ -10802,7 +10804,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="104" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A104">
         <v>102</v>
       </c>
@@ -10828,7 +10830,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="105" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A105">
         <v>103</v>
       </c>
@@ -10854,7 +10856,7 @@
         <v>887</v>
       </c>
     </row>
-    <row r="106" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A106">
         <v>104</v>
       </c>
@@ -10880,7 +10882,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="107" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A107">
         <v>105</v>
       </c>
@@ -10906,7 +10908,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="108" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A108">
         <v>106</v>
       </c>
@@ -10932,7 +10934,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="109" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A109">
         <v>107</v>
       </c>
@@ -10958,7 +10960,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="110" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A110">
         <v>108</v>
       </c>
@@ -10984,7 +10986,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="111" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A111">
         <v>109</v>
       </c>
@@ -11010,7 +11012,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="112" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A112">
         <v>110</v>
       </c>
@@ -11036,7 +11038,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A113">
         <v>111</v>
       </c>
@@ -11062,7 +11064,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A114">
         <v>112</v>
       </c>
@@ -11088,7 +11090,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A115">
         <v>113</v>
       </c>
@@ -11114,7 +11116,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A116">
         <v>114</v>
       </c>
@@ -11140,7 +11142,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A117">
         <v>115</v>
       </c>
@@ -11166,7 +11168,7 @@
         <v>510</v>
       </c>
     </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A118">
         <v>116</v>
       </c>
@@ -11192,7 +11194,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A119">
         <v>117</v>
       </c>
@@ -11218,7 +11220,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A120">
         <v>118</v>
       </c>
@@ -11244,7 +11246,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A121">
         <v>119</v>
       </c>
@@ -11270,7 +11272,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A122">
         <v>120</v>
       </c>
@@ -11296,7 +11298,7 @@
         <v>528</v>
       </c>
     </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A123">
         <v>121</v>
       </c>
@@ -11322,7 +11324,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A124">
         <v>122</v>
       </c>
@@ -11348,7 +11350,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A125">
         <v>123</v>
       </c>
@@ -11377,7 +11379,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A126">
         <v>124</v>
       </c>
@@ -11403,7 +11405,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A127">
         <v>125</v>
       </c>
@@ -11429,7 +11431,7 @@
         <v>547</v>
       </c>
     </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A128">
         <v>126</v>
       </c>
@@ -11455,7 +11457,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A129">
         <v>127</v>
       </c>
@@ -11481,7 +11483,7 @@
         <v>556</v>
       </c>
     </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A130">
         <v>128</v>
       </c>
@@ -11507,7 +11509,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A131">
         <v>129</v>
       </c>
@@ -11533,7 +11535,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="132" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A132">
         <v>130</v>
       </c>
@@ -11559,7 +11561,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="133" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A133">
         <v>131</v>
       </c>
@@ -11585,7 +11587,7 @@
         <v>573</v>
       </c>
     </row>
-    <row r="134" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A134">
         <v>132</v>
       </c>
@@ -11614,7 +11616,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="135" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A135">
         <v>133</v>
       </c>
@@ -11640,7 +11642,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="136" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A136">
         <v>134</v>
       </c>
@@ -11666,7 +11668,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="137" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A137">
         <v>135</v>
       </c>
@@ -11692,7 +11694,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="138" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A138">
         <v>136</v>
       </c>
@@ -11718,7 +11720,7 @@
         <v>594</v>
       </c>
     </row>
-    <row r="139" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A139">
         <v>137</v>
       </c>
@@ -11744,7 +11746,7 @@
         <v>594</v>
       </c>
     </row>
-    <row r="140" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A140">
         <v>138</v>
       </c>
@@ -11770,7 +11772,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="141" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A141">
         <v>139</v>
       </c>
@@ -11796,7 +11798,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="142" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A142">
         <v>140</v>
       </c>
@@ -11822,7 +11824,7 @@
         <v>594</v>
       </c>
     </row>
-    <row r="143" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A143">
         <v>141</v>
       </c>
@@ -11848,7 +11850,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="144" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A144">
         <v>142</v>
       </c>
@@ -11874,7 +11876,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="145" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A145">
         <v>143</v>
       </c>
@@ -11903,7 +11905,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="146" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A146">
         <v>144</v>
       </c>
@@ -11929,7 +11931,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="147" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A147">
         <v>145</v>
       </c>
@@ -11955,7 +11957,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="148" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A148">
         <v>146</v>
       </c>
@@ -11981,7 +11983,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="149" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A149">
         <v>147</v>
       </c>
@@ -12007,7 +12009,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="150" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A150">
         <v>148</v>
       </c>
@@ -12033,7 +12035,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="151" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A151">
         <v>149</v>
       </c>
@@ -12059,7 +12061,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="152" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A152">
         <v>150</v>
       </c>
@@ -12085,7 +12087,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="153" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="153" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A153">
         <v>151</v>
       </c>
@@ -12111,7 +12113,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="154" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="154" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A154">
         <v>152</v>
       </c>
@@ -12137,7 +12139,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="155" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="155" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A155">
         <v>153</v>
       </c>
@@ -12166,7 +12168,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="156" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="156" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A156">
         <v>154</v>
       </c>
@@ -12192,7 +12194,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="157" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="157" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A157">
         <v>155</v>
       </c>
@@ -12218,7 +12220,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="158" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="158" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A158">
         <v>156</v>
       </c>
@@ -12244,7 +12246,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="159" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="159" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A159">
         <v>157</v>
       </c>
@@ -12270,7 +12272,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="160" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="160" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A160">
         <v>158</v>
       </c>
@@ -12299,7 +12301,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="161" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="161" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A161">
         <v>159</v>
       </c>
@@ -12325,7 +12327,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="162" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="162" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A162">
         <v>160</v>
       </c>
@@ -12351,7 +12353,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="163" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="163" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A163">
         <v>161</v>
       </c>
@@ -12377,7 +12379,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="164" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="164" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A164">
         <v>162</v>
       </c>
@@ -12403,7 +12405,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="165" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="165" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A165">
         <v>163</v>
       </c>
@@ -12429,7 +12431,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="166" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="166" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A166">
         <v>164</v>
       </c>
@@ -12455,7 +12457,7 @@
         <v>693</v>
       </c>
     </row>
-    <row r="167" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="167" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A167">
         <v>165</v>
       </c>
@@ -12481,7 +12483,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="168" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="168" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A168">
         <v>166</v>
       </c>
@@ -12507,7 +12509,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="169" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="169" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A169">
         <v>167</v>
       </c>
@@ -12533,7 +12535,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="170" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="170" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A170">
         <v>168</v>
       </c>
@@ -12559,7 +12561,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="171" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="171" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A171">
         <v>169</v>
       </c>
@@ -12585,7 +12587,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="172" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="172" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A172">
         <v>170</v>
       </c>
@@ -12611,7 +12613,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="173" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="173" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A173">
         <v>171</v>
       </c>
@@ -12637,7 +12639,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="174" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="174" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A174">
         <v>172</v>
       </c>
@@ -12663,7 +12665,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="175" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="175" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A175">
         <v>173</v>
       </c>
@@ -12689,7 +12691,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="176" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="176" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A176">
         <v>174</v>
       </c>
@@ -12715,7 +12717,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="177" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="177" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A177">
         <v>175</v>
       </c>
@@ -12741,7 +12743,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="178" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="178" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A178">
         <v>176</v>
       </c>
@@ -12770,7 +12772,7 @@
         <v>739</v>
       </c>
     </row>
-    <row r="179" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="179" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A179">
         <v>177</v>
       </c>
@@ -12799,7 +12801,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="180" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="180" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A180">
         <v>178</v>
       </c>
@@ -12825,7 +12827,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="181" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="181" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A181">
         <v>179</v>
       </c>
@@ -12851,7 +12853,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="182" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="182" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A182">
         <v>180</v>
       </c>
@@ -12877,7 +12879,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="183" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="183" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A183">
         <v>181</v>
       </c>
@@ -12903,7 +12905,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="184" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="184" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A184">
         <v>182</v>
       </c>
@@ -12929,7 +12931,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="185" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="185" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A185">
         <v>183</v>
       </c>
@@ -12955,7 +12957,7 @@
         <v>767</v>
       </c>
     </row>
-    <row r="186" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="186" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A186">
         <v>184</v>
       </c>
@@ -12981,7 +12983,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="187" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="187" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A187">
         <v>185</v>
       </c>
@@ -13007,7 +13009,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="188" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="188" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A188">
         <v>186</v>
       </c>
@@ -13033,7 +13035,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="189" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="189" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A189">
         <v>187</v>
       </c>
@@ -13059,7 +13061,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="190" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="190" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A190">
         <v>188</v>
       </c>
@@ -13085,7 +13087,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="191" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="191" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A191">
         <v>189</v>
       </c>
@@ -13111,7 +13113,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="192" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="192" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A192">
         <v>190</v>
       </c>
@@ -13137,7 +13139,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="193" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="193" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A193">
         <v>191</v>
       </c>
@@ -13163,7 +13165,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="194" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="194" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A194">
         <v>192</v>
       </c>
@@ -13192,7 +13194,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="195" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="195" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A195">
         <v>193</v>
       </c>
@@ -13218,7 +13220,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="196" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="196" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A196">
         <v>194</v>
       </c>
@@ -13247,7 +13249,7 @@
         <v>815</v>
       </c>
     </row>
-    <row r="197" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="197" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A197">
         <v>195</v>
       </c>
@@ -13273,7 +13275,7 @@
         <v>819</v>
       </c>
     </row>
-    <row r="198" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="198" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A198">
         <v>196</v>
       </c>
@@ -13299,7 +13301,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="199" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="199" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A199">
         <v>197</v>
       </c>
@@ -13328,7 +13330,7 @@
         <v>827</v>
       </c>
     </row>
-    <row r="200" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="200" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A200">
         <v>198</v>
       </c>
@@ -13358,7 +13360,7 @@
         <v>883</v>
       </c>
     </row>
-    <row r="201" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="201" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A201">
         <v>199</v>
       </c>
@@ -13384,7 +13386,7 @@
         <v>838</v>
       </c>
     </row>
-    <row r="202" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="202" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A202">
         <v>200</v>
       </c>
@@ -13410,7 +13412,7 @@
         <v>838</v>
       </c>
     </row>
-    <row r="203" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="203" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A203">
         <v>201</v>
       </c>
@@ -13436,7 +13438,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="204" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="204" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A204">
         <v>202</v>
       </c>
@@ -13462,7 +13464,7 @@
         <v>850</v>
       </c>
     </row>
-    <row r="205" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="205" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A205">
         <v>203</v>
       </c>
@@ -13488,7 +13490,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="206" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="206" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A206">
         <v>204</v>
       </c>
@@ -13514,7 +13516,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="207" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="207" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A207">
         <v>205</v>
       </c>
@@ -13540,7 +13542,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="208" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="208" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A208">
         <v>206</v>
       </c>
@@ -13566,7 +13568,7 @@
         <v>866</v>
       </c>
     </row>
-    <row r="209" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="209" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A209">
         <v>207</v>
       </c>
@@ -13592,7 +13594,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="210" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="210" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A210">
         <v>208</v>
       </c>
@@ -13618,7 +13620,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="211" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="211" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A211">
         <v>209</v>
       </c>
@@ -13644,7 +13646,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="212" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="212" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A212">
         <v>210</v>
       </c>
@@ -13670,7 +13672,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="213" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="213" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A213">
         <v>211</v>
       </c>
@@ -13696,7 +13698,7 @@
         <v>987</v>
       </c>
     </row>
-    <row r="214" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="214" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A214">
         <v>212</v>
       </c>
@@ -13722,7 +13724,7 @@
         <v>984</v>
       </c>
     </row>
-    <row r="215" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="215" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A215">
         <v>213</v>
       </c>
@@ -13748,7 +13750,7 @@
         <v>986</v>
       </c>
     </row>
-    <row r="216" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="216" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A216">
         <v>214</v>
       </c>
@@ -13774,7 +13776,7 @@
         <v>987</v>
       </c>
     </row>
-    <row r="217" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="217" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A217">
         <v>215</v>
       </c>
@@ -13800,7 +13802,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="218" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="218" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A218" s="2">
         <v>216</v>
       </c>
@@ -13826,7 +13828,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="219" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="219" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A219" s="2">
         <v>217</v>
       </c>
@@ -13852,7 +13854,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="220" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="220" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A220">
         <v>218</v>
       </c>
@@ -13878,7 +13880,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="221" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="221" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A221" s="2">
         <v>219</v>
       </c>
@@ -13895,7 +13897,7 @@
         <v>915</v>
       </c>
     </row>
-    <row r="222" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="222" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A222">
         <v>220</v>
       </c>
@@ -13922,7 +13924,7 @@
         <v>990</v>
       </c>
     </row>
-    <row r="223" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="223" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A223">
         <v>221</v>
       </c>
@@ -13948,7 +13950,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="224" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="224" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A224">
         <v>222</v>
       </c>
@@ -13974,7 +13976,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="225" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="225" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A225">
         <v>223</v>
       </c>
@@ -14000,7 +14002,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="226" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="226" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A226">
         <v>224</v>
       </c>
@@ -14026,7 +14028,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="227" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="227" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A227">
         <v>225</v>
       </c>
@@ -14052,7 +14054,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="228" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="228" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A228">
         <v>226</v>
       </c>
@@ -14078,7 +14080,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="229" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="229" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A229">
         <v>227</v>
       </c>
@@ -14104,7 +14106,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="230" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="230" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A230">
         <v>228</v>
       </c>
@@ -14130,7 +14132,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="231" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="231" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A231">
         <v>229</v>
       </c>
@@ -14156,7 +14158,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="232" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="232" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A232">
         <v>230</v>
       </c>
@@ -14182,7 +14184,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="233" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="233" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A233">
         <v>231</v>
       </c>
@@ -14208,7 +14210,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="234" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="234" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A234">
         <v>232</v>
       </c>
@@ -14237,7 +14239,7 @@
         <v>1002</v>
       </c>
     </row>
-    <row r="235" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="235" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A235">
         <v>233</v>
       </c>
@@ -14263,7 +14265,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="236" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="236" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A236">
         <v>234</v>
       </c>
@@ -14289,7 +14291,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="237" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="237" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A237">
         <v>235</v>
       </c>
@@ -14315,7 +14317,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="238" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="238" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A238">
         <v>236</v>
       </c>
@@ -14344,7 +14346,7 @@
         <v>1007</v>
       </c>
     </row>
-    <row r="239" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="239" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A239">
         <v>237</v>
       </c>
@@ -14370,7 +14372,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="240" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="240" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A240">
         <v>238</v>
       </c>
@@ -14396,7 +14398,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="241" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="241" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A241">
         <v>239</v>
       </c>
@@ -14422,7 +14424,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="242" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="242" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A242">
         <v>240</v>
       </c>
@@ -14451,7 +14453,7 @@
         <v>1011</v>
       </c>
     </row>
-    <row r="243" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="243" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A243">
         <v>241</v>
       </c>
@@ -14478,7 +14480,7 @@
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:K212">
+  <sortState ref="A2:K212">
     <sortCondition ref="A2:A212"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -14487,21 +14489,21 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="R20" sqref="R20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="19.1796875" customWidth="1"/>
+    <col min="1" max="1" width="19.1640625" customWidth="1"/>
     <col min="2" max="2" width="16" customWidth="1"/>
-    <col min="3" max="3" width="13.1796875" customWidth="1"/>
+    <col min="3" max="3" width="13.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>1014</v>
       </c>
@@ -14512,7 +14514,7 @@
         <v>1016</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>1017</v>
       </c>
@@ -14524,7 +14526,7 @@
         <v>0.78661087866108792</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>1018</v>
       </c>
@@ -14536,7 +14538,7 @@
         <v>2.9288702928870293E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>1019</v>
       </c>
@@ -14548,7 +14550,7 @@
         <v>0.13389121338912133</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>114</v>
       </c>
@@ -14569,19 +14571,19 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="T19" sqref="T19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="27.453125" customWidth="1"/>
+    <col min="1" max="1" width="27.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>1034</v>
       </c>
@@ -14592,7 +14594,7 @@
         <v>1016</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>1042</v>
       </c>
@@ -14604,7 +14606,7 @@
         <v>0.20920502092050208</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>1031</v>
       </c>
@@ -14616,7 +14618,7 @@
         <v>0.7489539748953975</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>1041</v>
       </c>
@@ -14636,19 +14638,19 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="27.453125" customWidth="1"/>
+    <col min="1" max="1" width="27.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>1020</v>
       </c>
@@ -14659,7 +14661,7 @@
         <v>1016</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>1021</v>
       </c>
@@ -14671,7 +14673,7 @@
         <v>0.50627615062761511</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>1040</v>
       </c>
@@ -14683,7 +14685,7 @@
         <v>0.15899581589958159</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>1024</v>
       </c>
@@ -14695,7 +14697,7 @@
         <v>0.10460251046025104</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>1022</v>
       </c>
@@ -14707,7 +14709,7 @@
         <v>0.31380753138075312</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>1039</v>
       </c>
@@ -14719,7 +14721,7 @@
         <v>8.3682008368200833E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>1023</v>
       </c>
@@ -14739,24 +14741,24 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="T8" sqref="T8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="27.453125" customWidth="1"/>
+    <col min="1" max="1" width="27.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>1038</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>1033</v>
       </c>
@@ -14767,7 +14769,7 @@
         <v>1016</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>1035</v>
       </c>
@@ -14779,7 +14781,7 @@
         <v>0.4642857142857143</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>1037</v>
       </c>
@@ -14791,7 +14793,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>1036</v>
       </c>
@@ -14803,7 +14805,7 @@
         <v>0.2857142857142857</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>1032</v>
       </c>
@@ -14823,22 +14825,22 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K14"/>
   <sheetViews>
-    <sheetView zoomScale="99" zoomScaleNormal="99" workbookViewId="0">
-      <selection activeCell="K22" sqref="K22"/>
+    <sheetView tabSelected="1" zoomScale="99" zoomScaleNormal="99" workbookViewId="0">
+      <selection activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="17" customWidth="1"/>
-    <col min="8" max="8" width="16.453125" customWidth="1"/>
-    <col min="9" max="9" width="16.1796875" customWidth="1"/>
-    <col min="10" max="10" width="30.6328125" customWidth="1"/>
+    <col min="8" max="8" width="16.5" customWidth="1"/>
+    <col min="9" max="9" width="16.1640625" customWidth="1"/>
+    <col min="10" max="10" width="30.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -14867,7 +14869,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>7</v>
       </c>
@@ -14896,7 +14898,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>79</v>
       </c>
@@ -14925,7 +14927,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>84</v>
       </c>
@@ -14957,7 +14959,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>97</v>
       </c>
@@ -14986,7 +14988,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>124</v>
       </c>
@@ -15015,7 +15017,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>151</v>
       </c>
@@ -15044,7 +15046,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>184</v>
       </c>
@@ -15073,7 +15075,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>182</v>
       </c>
@@ -15102,7 +15104,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>120</v>
       </c>
@@ -15131,7 +15133,7 @@
         <v>528</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>232</v>
       </c>
@@ -15163,7 +15165,7 @@
         <v>1002</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>212</v>
       </c>
@@ -15192,7 +15194,7 @@
         <v>984</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>213</v>
       </c>
@@ -15221,7 +15223,7 @@
         <v>986</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>226</v>
       </c>
@@ -15244,7 +15246,7 @@
         <v>49</v>
       </c>
       <c r="I14" s="3" t="s">
-        <v>989</v>
+        <v>1045</v>
       </c>
       <c r="J14" t="s">
         <v>322</v>
@@ -15257,23 +15259,23 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A7" sqref="A7:XFD8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="13.6328125" customWidth="1"/>
-    <col min="3" max="3" width="15.6328125" customWidth="1"/>
-    <col min="5" max="5" width="38.81640625" customWidth="1"/>
-    <col min="8" max="8" width="39.6328125" customWidth="1"/>
-    <col min="9" max="9" width="32.453125" customWidth="1"/>
+    <col min="2" max="2" width="13.6640625" customWidth="1"/>
+    <col min="3" max="3" width="15.6640625" customWidth="1"/>
+    <col min="5" max="5" width="38.83203125" customWidth="1"/>
+    <col min="8" max="8" width="39.6640625" customWidth="1"/>
+    <col min="9" max="9" width="32.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -15302,7 +15304,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>18</v>
       </c>
@@ -15334,7 +15336,7 @@
         <v>884</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>16</v>
       </c>
@@ -15363,7 +15365,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>39</v>
       </c>
@@ -15395,7 +15397,7 @@
         <v>886</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>59</v>
       </c>
@@ -15427,7 +15429,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>38</v>
       </c>
@@ -15456,7 +15458,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>198</v>
       </c>
@@ -15488,7 +15490,7 @@
         <v>883</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>195</v>
       </c>
@@ -15524,23 +15526,23 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K9"/>
   <sheetViews>
     <sheetView topLeftCell="D1" workbookViewId="0">
       <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="75.36328125" customWidth="1"/>
-    <col min="3" max="3" width="28.6328125" customWidth="1"/>
-    <col min="8" max="8" width="40.6328125" customWidth="1"/>
-    <col min="9" max="9" width="35.6328125" customWidth="1"/>
-    <col min="10" max="10" width="48.1796875" customWidth="1"/>
+    <col min="2" max="2" width="75.33203125" customWidth="1"/>
+    <col min="3" max="3" width="28.6640625" customWidth="1"/>
+    <col min="8" max="8" width="40.6640625" customWidth="1"/>
+    <col min="9" max="9" width="35.6640625" customWidth="1"/>
+    <col min="10" max="10" width="48.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -15569,7 +15571,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>103</v>
       </c>
@@ -15598,7 +15600,7 @@
         <v>887</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>123</v>
       </c>
@@ -15630,7 +15632,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>132</v>
       </c>
@@ -15662,7 +15664,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>143</v>
       </c>
@@ -15694,7 +15696,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>183</v>
       </c>
@@ -15723,7 +15725,7 @@
         <v>767</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>211</v>
       </c>
@@ -15752,7 +15754,7 @@
         <v>987</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>214</v>
       </c>
@@ -15781,7 +15783,7 @@
         <v>987</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>158</v>
       </c>
@@ -15814,7 +15816,7 @@
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:K13">
+  <sortState ref="A2:K13">
     <sortCondition ref="A2:A13"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/full-text/test_prior 90.xlsx
+++ b/full-text/test_prior 90.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Download\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6638EE5B-33A0-4C3D-85D5-360BC9AF1715}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B02774C0-1614-4FE8-8E67-0B6040B408DF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1520" yWindow="1520" windowWidth="17530" windowHeight="8460" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="test_prior" sheetId="1" r:id="rId1"/>
@@ -7881,8 +7881,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K243"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A32" workbookViewId="0">
-      <selection activeCell="A41" sqref="A41:XFD41"/>
+    <sheetView topLeftCell="A204" workbookViewId="0">
+      <selection activeCell="H215" sqref="H215"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -13897,8 +13897,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:K11"/>
   <sheetViews>
-    <sheetView zoomScale="99" zoomScaleNormal="99" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12:XFD13"/>
+    <sheetView tabSelected="1" zoomScale="99" zoomScaleNormal="99" workbookViewId="0">
+      <selection activeCell="A12" sqref="A12:XFD12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -14073,22 +14073,22 @@
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A8">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="B8" t="s">
-        <v>700</v>
+        <v>693</v>
       </c>
       <c r="C8" t="s">
-        <v>701</v>
+        <v>694</v>
       </c>
       <c r="D8">
-        <v>2016</v>
+        <v>2013</v>
       </c>
       <c r="E8" t="s">
-        <v>702</v>
+        <v>695</v>
       </c>
       <c r="H8" t="s">
-        <v>43</v>
+        <v>558</v>
       </c>
       <c r="I8" t="s">
         <v>11</v>
@@ -14096,22 +14096,22 @@
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A9">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="B9" t="s">
-        <v>693</v>
+        <v>700</v>
       </c>
       <c r="C9" t="s">
-        <v>694</v>
+        <v>701</v>
       </c>
       <c r="D9">
-        <v>2013</v>
+        <v>2016</v>
       </c>
       <c r="E9" t="s">
-        <v>695</v>
+        <v>702</v>
       </c>
       <c r="H9" t="s">
-        <v>558</v>
+        <v>43</v>
       </c>
       <c r="I9" t="s">
         <v>11</v>
@@ -14119,51 +14119,51 @@
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A10">
-        <v>232</v>
+        <v>212</v>
       </c>
       <c r="B10" t="s">
-        <v>872</v>
+        <v>812</v>
       </c>
       <c r="C10" t="s">
-        <v>873</v>
+        <v>813</v>
       </c>
       <c r="D10">
-        <v>2016</v>
+        <v>2005</v>
       </c>
       <c r="E10" t="s">
-        <v>874</v>
+        <v>814</v>
       </c>
       <c r="H10" t="s">
-        <v>916</v>
+        <v>43</v>
       </c>
       <c r="I10" t="s">
         <v>761</v>
       </c>
-      <c r="K10" t="s">
-        <v>915</v>
-      </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A11">
-        <v>212</v>
+        <v>232</v>
       </c>
       <c r="B11" t="s">
-        <v>812</v>
+        <v>872</v>
       </c>
       <c r="C11" t="s">
-        <v>813</v>
+        <v>873</v>
       </c>
       <c r="D11">
-        <v>2005</v>
+        <v>2016</v>
       </c>
       <c r="E11" t="s">
-        <v>814</v>
+        <v>874</v>
       </c>
       <c r="H11" t="s">
-        <v>43</v>
+        <v>916</v>
       </c>
       <c r="I11" t="s">
         <v>761</v>
+      </c>
+      <c r="K11" t="s">
+        <v>915</v>
       </c>
     </row>
   </sheetData>
